--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_5_7.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_5_7.xlsx
@@ -478,435 +478,435 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_0</t>
+          <t>model_5_7_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.09644113042217439</v>
+        <v>0.6974622203418928</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6055614938256559</v>
+        <v>-6.217302954795444</v>
       </c>
       <c r="D2" t="n">
-        <v>-8.540134319655545</v>
+        <v>0.5327721081510806</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.69880470251516</v>
+        <v>-0.08427227848148955</v>
       </c>
       <c r="F2" t="n">
-        <v>1.21343719959259</v>
+        <v>0.3348202109336853</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2050943821668625</v>
+        <v>1.38331663608551</v>
       </c>
       <c r="H2" t="n">
-        <v>4.172794818878174</v>
+        <v>0.7297975420951843</v>
       </c>
       <c r="I2" t="n">
-        <v>2.072246789932251</v>
+        <v>1.075778126716614</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_1</t>
+          <t>model_5_7_17</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08391194896735477</v>
+        <v>0.7089548752024685</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.218593395792424</v>
+        <v>-5.737751787781138</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.241512733760084</v>
+        <v>0.6375893158206252</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.626634717442851</v>
+        <v>0.0424263715803016</v>
       </c>
       <c r="F3" t="n">
-        <v>1.013839483261108</v>
+        <v>0.3221011757850647</v>
       </c>
       <c r="G3" t="n">
-        <v>0.633626401424408</v>
+        <v>1.291402578353882</v>
       </c>
       <c r="H3" t="n">
-        <v>3.604785680770874</v>
+        <v>0.5660759210586548</v>
       </c>
       <c r="I3" t="n">
-        <v>2.031813621520996</v>
+        <v>0.9500721096992493</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_2</t>
+          <t>model_5_7_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1138945265335956</v>
+        <v>0.7126771490506053</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1823500320518379</v>
+        <v>-5.985447917359096</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.557969962852873</v>
+        <v>0.59439944163446</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.725099829165509</v>
+        <v>-0.01490460840409757</v>
       </c>
       <c r="F4" t="n">
-        <v>0.980657696723938</v>
+        <v>0.3179817497730255</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6147810816764832</v>
+        <v>1.33887779712677</v>
       </c>
       <c r="H4" t="n">
-        <v>3.743202209472656</v>
+        <v>0.6335372924804688</v>
       </c>
       <c r="I4" t="n">
-        <v>2.086978435516357</v>
+        <v>1.006953835487366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_3</t>
+          <t>model_5_7_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2342269060579819</v>
+        <v>0.7151745605062203</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2217291088236109</v>
+        <v>-5.935813290120324</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.576907190145992</v>
+        <v>0.6011622273031679</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.533515032329565</v>
+        <v>-0.004817765460928936</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8474851250648499</v>
+        <v>0.3152178227901459</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4046739339828491</v>
+        <v>1.329364418983459</v>
       </c>
       <c r="H5" t="n">
-        <v>3.751485347747803</v>
+        <v>0.6229740381240845</v>
       </c>
       <c r="I5" t="n">
-        <v>1.979643702507019</v>
+        <v>0.9969460964202881</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_4</t>
+          <t>model_5_7_23</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2800473385160325</v>
+        <v>0.7153249692381314</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2530870958152212</v>
+        <v>-5.91892469633464</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.117345004742319</v>
+        <v>0.5897916877482965</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.716661125011909</v>
+        <v>-0.01151359812352126</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7967754006385803</v>
+        <v>0.3150513470172882</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3883688747882843</v>
+        <v>1.326127529144287</v>
       </c>
       <c r="H6" t="n">
-        <v>3.987869262695312</v>
+        <v>0.6407344937324524</v>
       </c>
       <c r="I6" t="n">
-        <v>2.082250833511353</v>
+        <v>1.003589510917664</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_9</t>
+          <t>model_5_7_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2894586100259693</v>
+        <v>0.7205587080049182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07438060730176554</v>
+        <v>-5.61311624607428</v>
       </c>
       <c r="D7" t="n">
-        <v>-9.365036689190584</v>
+        <v>0.6315835934542445</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.262864926551421</v>
+        <v>0.05072301364502985</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7863599061965942</v>
+        <v>0.3092591762542725</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4812900722026825</v>
+        <v>1.267514228820801</v>
       </c>
       <c r="H7" t="n">
-        <v>4.533601760864258</v>
+        <v>0.5754566192626953</v>
       </c>
       <c r="I7" t="n">
-        <v>2.388260364532471</v>
+        <v>0.9418404698371887</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_7</t>
+          <t>model_5_7_19</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3037396988064098</v>
+        <v>0.7237914803279565</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4009530505607639</v>
+        <v>-5.570136924563408</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.880179722295928</v>
+        <v>0.6247981278214925</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.950890289279963</v>
+        <v>0.05009121267545669</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7705549597740173</v>
+        <v>0.305681437253952</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7284471392631531</v>
+        <v>1.259276509284973</v>
       </c>
       <c r="H8" t="n">
-        <v>3.884134769439697</v>
+        <v>0.5860553979873657</v>
       </c>
       <c r="I8" t="n">
-        <v>2.21347713470459</v>
+        <v>0.9424672722816467</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_8</t>
+          <t>model_5_7_20</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3161038594098823</v>
+        <v>0.7241726760507536</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1569095010509329</v>
+        <v>-5.587877956691899</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.192944254727529</v>
+        <v>0.6084087030547871</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.945881701551812</v>
+        <v>0.03613553397929159</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7568715214729309</v>
+        <v>0.3052595555782318</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6015529036521912</v>
+        <v>1.26267683506012</v>
       </c>
       <c r="H9" t="n">
-        <v>4.020936012268066</v>
+        <v>0.6116552352905273</v>
       </c>
       <c r="I9" t="n">
-        <v>2.210671186447144</v>
+        <v>0.9563136100769043</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_5</t>
+          <t>model_5_7_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3287716106295231</v>
+        <v>0.7311611151266564</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1923676951820881</v>
+        <v>-4.966105110955106</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.659583827320867</v>
+        <v>0.6563395987623593</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.76736072954065</v>
+        <v>0.1352350975887898</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7428520917892456</v>
+        <v>0.2975254058837891</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6199899315834045</v>
+        <v>1.143503665924072</v>
       </c>
       <c r="H10" t="n">
-        <v>3.787647247314453</v>
+        <v>0.5367884039878845</v>
       </c>
       <c r="I10" t="n">
-        <v>2.110655069351196</v>
+        <v>0.8579905033111572</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_6</t>
+          <t>model_5_7_8</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3290426126505712</v>
+        <v>0.7494968543569596</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2273207037304334</v>
+        <v>-4.510270895971352</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.654199193047896</v>
+        <v>0.8396075823216751</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.782548922236733</v>
+        <v>0.317627648366365</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7425521016120911</v>
+        <v>0.2772331535816193</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6381642818450928</v>
+        <v>1.056135416030884</v>
       </c>
       <c r="H11" t="n">
-        <v>3.785292387008667</v>
+        <v>0.2505286931991577</v>
       </c>
       <c r="I11" t="n">
-        <v>2.119164228439331</v>
+        <v>0.6770266890525818</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_11</t>
+          <t>model_5_7_6</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3735605393562087</v>
+        <v>0.7502496160343931</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3175228413617639</v>
+        <v>-4.481272550906066</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.720098156633561</v>
+        <v>0.8703661557661082</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.906447492030343</v>
+        <v>0.3433810732465784</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6932839155197144</v>
+        <v>0.276400089263916</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3548645079135895</v>
+        <v>1.050577402114868</v>
       </c>
       <c r="H12" t="n">
-        <v>4.251509666442871</v>
+        <v>0.2024846225976944</v>
       </c>
       <c r="I12" t="n">
-        <v>2.188578128814697</v>
+        <v>0.6514750719070435</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_10</t>
+          <t>model_5_7_7</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3819817498450493</v>
+        <v>0.7512751079756441</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3025199114199008</v>
+        <v>-4.469478495608826</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.477518707684609</v>
+        <v>0.8584806354998793</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.824701712457926</v>
+        <v>0.3357815107734242</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6839641332626343</v>
+        <v>0.2752651572227478</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3626655340194702</v>
+        <v>1.048316955566406</v>
       </c>
       <c r="H13" t="n">
-        <v>4.145406723022461</v>
+        <v>0.221049502491951</v>
       </c>
       <c r="I13" t="n">
-        <v>2.142780065536499</v>
+        <v>0.6590151190757751</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_12</t>
+          <t>model_5_7_15</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3867182420279579</v>
+        <v>0.7537629801268246</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3201858746873631</v>
+        <v>-4.321862004777125</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.588971612129637</v>
+        <v>0.7201098942714019</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.856963580632438</v>
+        <v>0.2483666437527637</v>
       </c>
       <c r="F14" t="n">
-        <v>0.678722083568573</v>
+        <v>0.2725118100643158</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3534798622131348</v>
+        <v>1.020023822784424</v>
       </c>
       <c r="H14" t="n">
-        <v>4.194155693054199</v>
+        <v>0.4371809363365173</v>
       </c>
       <c r="I14" t="n">
-        <v>2.160855054855347</v>
+        <v>0.7457451820373535</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_13</t>
+          <t>model_5_7_5</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.387069307302856</v>
+        <v>0.756672133898031</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2456122368130645</v>
+        <v>-4.184476321100356</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.544129824473085</v>
+        <v>0.8770444387269956</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.877127362211542</v>
+        <v>0.3786829639069402</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6783336997032166</v>
+        <v>0.2692922651767731</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3922555446624756</v>
+        <v>0.9936915636062622</v>
       </c>
       <c r="H15" t="n">
-        <v>4.174542427062988</v>
+        <v>0.1920533329248428</v>
       </c>
       <c r="I15" t="n">
-        <v>2.172151803970337</v>
+        <v>0.6164497137069702</v>
       </c>
     </row>
     <row r="16">
@@ -916,338 +916,338 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4019467860785593</v>
+        <v>0.7568338979323226</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2456461846851381</v>
+        <v>-4.145829242278853</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.318038284404974</v>
+        <v>0.7216816853537329</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.794051273301157</v>
+        <v>0.2675346686254851</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6618686318397522</v>
+        <v>0.2691132426261902</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3922378718852997</v>
+        <v>0.9862841367721558</v>
       </c>
       <c r="H16" t="n">
-        <v>4.075651168823242</v>
+        <v>0.434725821018219</v>
       </c>
       <c r="I16" t="n">
-        <v>2.125608444213867</v>
+        <v>0.7267272472381592</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_16</t>
+          <t>model_5_7_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4063700977361698</v>
+        <v>0.7583784953613861</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1908818399298047</v>
+        <v>-4.127602289378686</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.212457463966077</v>
+        <v>0.8108148113539736</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.782170585723216</v>
+        <v>0.3354336140673088</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6569734215736389</v>
+        <v>0.2674038112163544</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4207134544849396</v>
+        <v>0.9827906489372253</v>
       </c>
       <c r="H17" t="n">
-        <v>4.029470920562744</v>
+        <v>0.2955022156238556</v>
       </c>
       <c r="I17" t="n">
-        <v>2.11895227432251</v>
+        <v>0.6593602895736694</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_15</t>
+          <t>model_5_7_10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4110688419434743</v>
+        <v>0.7739916680614048</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2158964974497898</v>
+        <v>-3.546450216334809</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.154547708100479</v>
+        <v>0.7870873816403441</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.748609382493663</v>
+        <v>0.3772900085872629</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6517733335494995</v>
+        <v>0.2501246333122253</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4077067077159882</v>
+        <v>0.8714030981063843</v>
       </c>
       <c r="H18" t="n">
-        <v>4.004141807556152</v>
+        <v>0.3325638473033905</v>
       </c>
       <c r="I18" t="n">
-        <v>2.100149631500244</v>
+        <v>0.6178317666053772</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_17</t>
+          <t>model_5_7_13</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4263695202232017</v>
+        <v>0.7830262461403271</v>
       </c>
       <c r="C19" t="n">
-        <v>0.100629873446121</v>
+        <v>-2.990722261794831</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.779218839343635</v>
+        <v>0.7165082365252546</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.66734152573962</v>
+        <v>0.3818373446765225</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6348398923873901</v>
+        <v>0.2401260137557983</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4676413536071777</v>
+        <v>0.7648885250091553</v>
       </c>
       <c r="H19" t="n">
-        <v>3.839975357055664</v>
+        <v>0.4428066313266754</v>
       </c>
       <c r="I19" t="n">
-        <v>2.054619789123535</v>
+        <v>0.6133200526237488</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_19</t>
+          <t>model_5_7_12</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4266062696954186</v>
+        <v>0.7846935174009531</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03453246861838244</v>
+        <v>-2.979379301277777</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.702881508787408</v>
+        <v>0.7323688308092395</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.671774661472024</v>
+        <v>0.3947474523242854</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6345778703689575</v>
+        <v>0.2382808476686478</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5020096898078918</v>
+        <v>0.7627145648002625</v>
       </c>
       <c r="H20" t="n">
-        <v>3.806585550308228</v>
+        <v>0.4180328249931335</v>
       </c>
       <c r="I20" t="n">
-        <v>2.057103395462036</v>
+        <v>0.6005110740661621</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_18</t>
+          <t>model_5_7_11</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4272449764076708</v>
+        <v>0.7850846528085643</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06374545899310879</v>
+        <v>-3.00825931285572</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.722597503979667</v>
+        <v>0.7455792133774939</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.664665628126573</v>
+        <v>0.401580176431654</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6338710188865662</v>
+        <v>0.2378479391336441</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4868199527263641</v>
+        <v>0.7682498097419739</v>
       </c>
       <c r="H21" t="n">
-        <v>3.81520938873291</v>
+        <v>0.3973985314369202</v>
       </c>
       <c r="I21" t="n">
-        <v>2.053120374679565</v>
+        <v>0.5937318801879883</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_20</t>
+          <t>model_5_7_0</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.432053752164666</v>
+        <v>0.868740422980479</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01321135721262501</v>
+        <v>0.9968286111236023</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.58409650746143</v>
+        <v>0.996378394504709</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.638620681797505</v>
+        <v>0.9969925229831027</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6285491585731506</v>
+        <v>0.1452656835317612</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5130959153175354</v>
+        <v>0.0006078496808186173</v>
       </c>
       <c r="H22" t="n">
-        <v>3.754630088806152</v>
+        <v>0.005656851455569267</v>
       </c>
       <c r="I22" t="n">
-        <v>2.038528919219971</v>
+        <v>0.002983917016535997</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_21</t>
+          <t>model_5_7_1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4359593883288706</v>
+        <v>0.873371440559328</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01079877361707338</v>
+        <v>0.9891996301004663</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.514472904169688</v>
+        <v>0.9942087163002719</v>
       </c>
       <c r="E23" t="n">
-        <v>-2.614216960491929</v>
+        <v>0.9946050369768564</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6242267489433289</v>
+        <v>0.1401405036449432</v>
       </c>
       <c r="G23" t="n">
-        <v>0.514350414276123</v>
+        <v>0.002070071408525109</v>
       </c>
       <c r="H23" t="n">
-        <v>3.72417688369751</v>
+        <v>0.009045831859111786</v>
       </c>
       <c r="I23" t="n">
-        <v>2.024856805801392</v>
+        <v>0.005352699663490057</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_24</t>
+          <t>model_5_7_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4428920515249735</v>
+        <v>0.8763806242887576</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.04745883300662168</v>
+        <v>0.9377755261822076</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.318824471791727</v>
+        <v>0.9882689827973903</v>
       </c>
       <c r="E24" t="n">
-        <v>-2.570962571376633</v>
+        <v>0.9849451377634348</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6165543794631958</v>
+        <v>0.1368102133274078</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5446423292160034</v>
+        <v>0.01192635949701071</v>
       </c>
       <c r="H24" t="n">
-        <v>3.638601303100586</v>
+        <v>0.01832353696227074</v>
       </c>
       <c r="I24" t="n">
-        <v>2.00062370300293</v>
+        <v>0.01493692584335804</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_23</t>
+          <t>model_5_7_3</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4430300102408955</v>
+        <v>0.8794261526790388</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.04636194759791379</v>
+        <v>0.9066507389151482</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.317857649652899</v>
+        <v>0.9846461507564183</v>
       </c>
       <c r="E25" t="n">
-        <v>-2.570061709733765</v>
+        <v>0.9790781588684516</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6164016723632812</v>
+        <v>0.1334397196769714</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5440720319747925</v>
+        <v>0.01789194531738758</v>
       </c>
       <c r="H25" t="n">
-        <v>3.638178825378418</v>
+        <v>0.02398230507969856</v>
       </c>
       <c r="I25" t="n">
-        <v>2.000118970870972</v>
+        <v>0.02075794152915478</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_22</t>
+          <t>model_5_7_4</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4430390980152396</v>
+        <v>0.8798382529207642</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.04379594665860331</v>
+        <v>0.8118621695379652</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.320063910919547</v>
+        <v>0.9764038878736441</v>
       </c>
       <c r="E26" t="n">
-        <v>-2.569622310889782</v>
+        <v>0.9632776125493101</v>
       </c>
       <c r="F26" t="n">
-        <v>0.616391658782959</v>
+        <v>0.1329836547374725</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5427377820014954</v>
+        <v>0.03605975583195686</v>
       </c>
       <c r="H26" t="n">
-        <v>3.639143466949463</v>
+        <v>0.03685650229454041</v>
       </c>
       <c r="I26" t="n">
-        <v>1.999872803688049</v>
+        <v>0.03643471002578735</v>
       </c>
     </row>
   </sheetData>
